--- a/biology/Botanique/Maranthes/Maranthes.xlsx
+++ b/biology/Botanique/Maranthes/Maranthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maranthes est un genre de plantes à fleurs de la famille des Chrysobalanaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (24 juillet 2017) :
 Maranthes aubrevillei (Pellegr.) Prance
 Maranthes chrysophylla (Oliv.) Prance
 Maranthes corymbosa Blume
@@ -552,7 +568,7 @@
 Maranthes polyandra (Benth.) Prance
 Maranthes robusta (Oliv.) Prance ex F.White
 Maranthes sanagensis F.White
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Maranthes aubrevillei (Pellegr.) Prance
 Maranthes chrysophylla (Oliv.) Prance
 Maranthes corymbosa Blume
@@ -565,7 +581,7 @@
 Maranthes polyandra (Benth.) Prance
 Maranthes robusta (Oliv.) Prance
 Maranthes sanagensis F.White
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juillet 2017) :
 Maranthes aubrevillei (Pellegr.) Prance ex F.White (1976)
 Maranthes chrysophylla (Oliv.) Prance ex F.White (1976)
 sous-espèce Maranthes chrysophylla subsp. chrysophylla
@@ -580,13 +596,13 @@
 Maranthes polyandra (Benth.) Prance, Bol. Soc. Brot., sér. 2 (1966)
 Maranthes robusta (Oliv.) Prance ex F.White (1976)
 Maranthes sanagensis F.White, Adansonia, n.s. (1976)
-Selon NCBI  (24 juillet 2017)[5] :
+Selon NCBI  (24 juillet 2017) :
 Maranthes corymbosa
 Maranthes gabunensis
 Maranthes glabra
 Maranthes kerstingii
 Maranthes robusta
-Selon The Plant List            (24 juillet 2017)[6] :
+Selon The Plant List            (24 juillet 2017) :
 Maranthes aubrevillei (Pellegr.) Prance ex F.White
 Maranthes chrysophylla (Oliv.) Prance ex F.White
 Maranthes corymbosa Blume
@@ -599,7 +615,7 @@
 Maranthes polyandra (Benth.) Prance
 Maranthes robusta (Oliv.) Prance ex F.White
 Maranthes sanagensis F.White
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Maranthes aubrevillei (Pellegr.) Prance
 Maranthes chrysophylla (Oliv.) Prance
 Maranthes corymbosa Blume
